--- a/lesson2/excel_files/sell_list_new.xlsx
+++ b/lesson2/excel_files/sell_list_new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="880" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="1" state="visible" r:id="rId1"/>
